--- a/biology/Zoologie/Diamant_mandarin/Diamant_mandarin.xlsx
+++ b/biology/Zoologie/Diamant_mandarin/Diamant_mandarin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Taeniopygia guttata
 Le Diamant mandarin (Taeniopygia guttata) est une espèce d'oiseaux de la famille des Estrildidés. Parfois nommé Mandarin tout court, c'est le membre de cette famille le plus commun et le plus familier du centre de l'Australie. Il existe un dimorphisme sexuel : le mâle a des joues orange, une poitrine possédant des rayures horizontales et une barre sombre, ainsi que des flancs roux ponctués de points blancs, attributs que la femelle ne possède pas. Les spécimens sauvages sont souvent plus petits que leurs homologues domestiques. Existent également les diamants mandarins de Timor, plus petits que les diamant mandarins « classiques ».
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure de 8 à 10 cm (forme sauvage) ou 11 à 12 cm (forme domestique) pour une masse d'environ 15 g.
 Au stade juvénile le bec est noir et les pattes rosées, ces parties deviennent par la suite rouge-orange à l'âge adulte.
@@ -521,10 +535,84 @@
 			Femelle de profil.
 			Mâle de profil.
 			Jeune mâle en début de mue adulte (à gauche) et deux juvéniles.
-Mutations colorées[1]
-Il existe une très grande quantité de mutations chez le mandarin, plus ou moins répandues, certaines étant limitées à l'Australie en raison de l'interdiction d'exportation d'animaux vivants.
-Mutations présentes en Europe
-Mutations dominantes
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Diamant_mandarin</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diamant_mandarin</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Mutations colorées[1]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe une très grande quantité de mutations chez le mandarin, plus ou moins répandues, certaines étant limitées à l'Australie en raison de l'interdiction d'exportation d'animaux vivants.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Diamant_mandarin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diamant_mandarin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mutations colorées[1]</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Mutations présentes en Europe</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mutations dominantes
 - Pastel : Dilution généralisée de l'ensemble du plumage (dilution variable selon les individus).
 - Black face / Face noire : contre le ventre du mâle deviennent noirs, chez la femelle ils prennent la teinte de son dos.
 - Joues (grises ou brunes) : Dilution du plumage et problèmes de fixation de la phaéomélanine. Le mâle est blanc avec les joues grises, la poitrine marbrée de gris et les flancs habituels. La femelle est blanche avec les joues colorées et les flancs grisâtres. Combinée à la mutation brune, on obtient du joues brunes, le gris étant remplacé par du brun. Peut s'accompagner de troubles oculaires chez les oisillons (borgnes, aveugles, voire sans yeux).
@@ -544,8 +632,47 @@
 - Gezoomd : Dilution localisée des plumes, qui présentent comme un ourlet plus clair.
 - Bec jaune : Le bec et les pattes deviennent jaunes.
 - Charcoal : Importée (illégalement ou non, les conditions d'arrivées sont inconnues) d'Australie, apparue en Europe très récemment, très semblable à l'eumo, mais sans les problèmes de plumes. Très recherchée par les éleveurs, les prix sont très élevés.
-Mutations liées au sexe récessives
-Les mandarins, comme les autres oiseaux, possèdent des chromosomes sexuels inversés par rapport aux mammifères. Les mâles sont ZZ (équivalent de XX) et les femelles ZW (équivalent de XY). Le chromosome W de la femelle ''subit'' les mutations présentes sur son homologue Z, les femelles ne peuvent donc être porteuses de mutations liées au sexe, elles seront d'office mutantes. Les mâles peuvent par contre l'être, mais pour être mutants, ils doivent posséder le gène mutant sur leurs deux chromosomes Z. Cela implique donc que leur mère doit forcément être mutante, le père pouvant être uniquement porteur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Diamant_mandarin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diamant_mandarin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mutations colorées[1]</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Mutations liées au sexe récessives</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mandarins, comme les autres oiseaux, possèdent des chromosomes sexuels inversés par rapport aux mammifères. Les mâles sont ZZ (équivalent de XX) et les femelles ZW (équivalent de XY). Le chromosome W de la femelle ''subit'' les mutations présentes sur son homologue Z, les femelles ne peuvent donc être porteuses de mutations liées au sexe, elles seront d'office mutantes. Les mâles peuvent par contre l'être, mais pour être mutants, ils doivent posséder le gène mutant sur leurs deux chromosomes Z. Cela implique donc que leur mère doit forcément être mutante, le père pouvant être uniquement porteur.
 - Brun : Transformation de l'eumélanine noire en eumélanine brune
 - Dos clair : Dilution du dos et des joues et flancs
 - Masqué ancien type : Forte dilution du plumage et des dessins, oiseau d'apparence blanche avec larmes et carreaux de queue respectivement noires et beiges. Le mâle possède des flancs et des joues beige clair.
@@ -561,73 +688,112 @@
 			Isabelle à poitrine orange (femelle).
 			Brun (femelle)
 			Masqué à poitrine noire (femelle), visuellement proche du blanc, mais avec de discrets traits de couleur au bec
-Autres mutations
-Il existe également des mutations touchant à la forme et/ou la longueur de la plume : 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Diamant_mandarin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diamant_mandarin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres mutations</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe également des mutations touchant à la forme et/ou la longueur de la plume : 
 La mutation "Huppé", qui modifie l'implantation des plumes de la tête selon une crête, un épi, ou une huppe circulaire semblable à une casquette.
 La mutation "Frisé" allonge et modifie la tenue des plumes de l'ensemble du corps, cette mutation est très rare. Les frisures peuvent également être dues à des troubles lors de la mue, liés ou non à des carences par exemple. Un oiseau peut devenir frisé lors d'une de ses mues et redevenir normal par après. Les véritables frisés ont également les ongles qui tendent à pousser en spirale.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Diamant_mandarin</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Diamant_mandarin</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Diamant_mandarin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diamant_mandarin</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les diamants mandarins (sauvages) sont peu exigeants par rapport à leurs habitats, fréquentant à la fois les plaines broussailleuses que les marais que les parcs et jardins, ils évitent tout de même les milieux fermés et humides. Adaptés aux perturbations humaines, ils tirent notamment profit des trous d'eau creusés par l'homme, et des espaces ouverts par la déforestation. Ils vont jusque dans les villes et sont présents pratiquement partout en Australie.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Diamant_mandarin</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Diamant_mandarin</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Diamant_mandarin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diamant_mandarin</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Sous-espèces et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe deux sous-espèces distinctes.
-Selon Catalogue of Life                                   (4 mai 2014)[2] et la classification de référence du Congrès ornithologique international  (version 4.2, 2014)[3] :
+Selon Catalogue of Life                                   (4 mai 2014) et la classification de référence du Congrès ornithologique international  (version 4.2, 2014) :
 Sous-espèce Taeniopygia guttata castanotis (Gould, 1837) ;
 Sous-espèce Taeniopygia guttata guttata (Vieillot, 1817).
 Les différences morphologiques entre les sous-espèces incluent des différences dans la taille. Taeniopygia guttata guttata est plus petit (8 cm) que Taeniopygia guttata castanotis et ne porte pas la même marque distinctive sur la gorge et la partie supérieure de la poitrine.
@@ -637,83 +803,305 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Diamant_mandarin</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Diamant_mandarin</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Diamant_mandarin</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diamant_mandarin</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Les diamants mandarins ont un comportement extrêmement grégaire, et il est rarissime d'apercevoir un individu isolé : ces oiseaux préfèrent évoluer en groupe de plusieurs couples. Mâles et femelles ne s'éloignent l'un de l'autre que lorsque le nid doit être gardé.
-Mâle et femelle poussent divers cris d'appel plutôt nasillards, mais seul le mâle est capable d'émettre un vrai chant, propre à chaque individu[4].
-Reproduction
+Mâle et femelle poussent divers cris d'appel plutôt nasillards, mais seul le mâle est capable d'émettre un vrai chant, propre à chaque individu.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Diamant_mandarin</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diamant_mandarin</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Œufs de mandarins.
 			Oisillons au nid.
 			Juvéniles.
 Le diamant mandarin se reproduit après d'importantes précipitations dans son habitat naturel, à n'importe quel moment de l'année. Adaptables et polyvalents dans la construction de leurs nids, les diamants sauvages peuvent s'installer dans des niches, grottes, buissons, maquis, terriers de lapins, sur des nids de termites, voire dans les trous présents dans des structures humaines. En dehors des périodes de reproduction, les nids servent également pour le repos nocturne des oiseaux. La ponte compte de quatre à six œufs en moyenne (elle peut descendre à deux œufs, ou dépasser les dix, mais ces cas restent exceptionnels) à la fréquence d'un par jour, l'incubation est assurée aussi bien par la femelle que par le mâle et dure 12 à 13 jours . Trois semaines plus tard, les petits quittent leur nid.
 Au stade juvénile, le bec est noir. En captivité, les mandarins nichent dans des nids de formes diverses et peuvent se reproduire toute l'année. Ces oiseaux sont réputés pour se reproduire extrêmement facilement.
-Espérance de vie
-À l'état sauvage, le Diamant Mandarin a une longévité de 2 à 5 ans[5]. Domestiqué, il peut vivre jusqu'à environ 10 ans[6].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Diamant_mandarin</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Diamant_mandarin</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Diamant_mandarin</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diamant_mandarin</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Espérance de vie</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'état sauvage, le Diamant Mandarin a une longévité de 2 à 5 ans. Domestiqué, il peut vivre jusqu'à environ 10 ans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Diamant_mandarin</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diamant_mandarin</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Leur popularité en tant que sujet d'étude vient également de la facilité de leur reproduction, c'est pour cette même raison qu'ils peuvent également être acquis par les particuliers comme oiseaux de compagnie à un prix relativement abordable.
-Animal de laboratoire
-Étude des populations
-Les diamants mandarins sont parfois utilisés pour modéliser des populations aviennes.
-Étude des sons
-Ils constituent également un modèle d'étude des capacités d'interprétation des sons par le cerveau, grâce à leur capacité à reconnaitre et réagir aux chants de leurs congénères[7].
-Par exemple, des études sur les diamants mandarins ont montré que le gène FOXP2 était davantage exprimé dans les régions du cerveau des mâles lors des phases d'apprentissage du chant ; un résultat qui vient en appui de l'hypothèse en faveur d'un rôle important du gène humain homologue, FOXP2, dans l'acquisition du langage par l'enfant et donc dans l'évolution de la faculté de langage de l'espèce humaine[8].
-Animal de compagnie
-Cette espèce est très commune dans les animaleries et adaptée même aux éleveurs amateurs. De petite taille, vif, sociable et accommodant en captivité, le mandarin s'y reproduit facilement.
-Législation
-Seul un individu de variété domestique, issu d'élevage, est considéré comme étant un animal domestique en droit français. Les autres oiseaux relèvent donc de la législation concernant les animaux sauvages[9].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Diamant_mandarin</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diamant_mandarin</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Animal de laboratoire</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Étude des populations</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les diamants mandarins sont parfois utilisés pour modéliser des populations aviennes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Diamant_mandarin</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diamant_mandarin</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Animal de laboratoire</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Étude des sons</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils constituent également un modèle d'étude des capacités d'interprétation des sons par le cerveau, grâce à leur capacité à reconnaitre et réagir aux chants de leurs congénères.
+Par exemple, des études sur les diamants mandarins ont montré que le gène FOXP2 était davantage exprimé dans les régions du cerveau des mâles lors des phases d'apprentissage du chant ; un résultat qui vient en appui de l'hypothèse en faveur d'un rôle important du gène humain homologue, FOXP2, dans l'acquisition du langage par l'enfant et donc dans l'évolution de la faculté de langage de l'espèce humaine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Diamant_mandarin</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diamant_mandarin</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Animal de compagnie</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est très commune dans les animaleries et adaptée même aux éleveurs amateurs. De petite taille, vif, sociable et accommodant en captivité, le mandarin s'y reproduit facilement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Diamant_mandarin</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diamant_mandarin</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Législation</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seul un individu de variété domestique, issu d'élevage, est considéré comme étant un animal domestique en droit français. Les autres oiseaux relèvent donc de la législation concernant les animaux sauvages.
 </t>
         </is>
       </c>
